--- a/database/versenyEredmenyek.xlsx
+++ b/database/versenyEredmenyek.xlsx
@@ -1,157 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nextcloud\projektek\gitrepos\Ullo_loter\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6485DE8-502C-477B-8EBE-004FC4A8B4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Versenyengedelyszam</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Egyesulet</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Birth</t>
-  </si>
-  <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Last_changed</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>KKPI_NY</t>
-  </si>
-  <si>
-    <t>KKPI_O</t>
-  </si>
-  <si>
-    <t>NKPI_NY</t>
-  </si>
-  <si>
-    <t>NKPI_O</t>
-  </si>
-  <si>
-    <t>KKPU_NY</t>
-  </si>
-  <si>
-    <t>KKPU_O</t>
-  </si>
-  <si>
-    <t>NKOU_NY</t>
-  </si>
-  <si>
-    <t>NKPU_O</t>
-  </si>
-  <si>
-    <t>SORET_NY</t>
-  </si>
-  <si>
-    <t>Soret_O</t>
-  </si>
-  <si>
-    <t>HUZAGOLT_SORET_NY</t>
-  </si>
-  <si>
-    <t>HUZAGOLT_SORET_O</t>
-  </si>
-  <si>
-    <t>Verseny_ID</t>
-  </si>
-  <si>
-    <t>VID_00001</t>
-  </si>
-  <si>
-    <t>Fekete Kálmán</t>
-  </si>
-  <si>
-    <t>Üllői Lövész Klub</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-40E]General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman1"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman1"/>
-      <charset val="238"/>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -163,54 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normál_Munka1" xfId="1" xr:uid="{68C4DA74-8800-4B84-831D-BBC4C028CCA5}"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -498,114 +420,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Versenyengedelyszam</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Egyesulet</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Birth</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Last_changed</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>KKPI_NY</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>KKPI_O</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>NKPI_NY</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>NKPI_O</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>KKPU_NY</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>KKPU_O</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>NKOU_NY</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>NKPU_O</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>SORET_NY</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Soret_O</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>HUZAGOLT_SORET_NY</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>HUZAGOLT_SORET_O</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Verseny_ID</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="30">
-      <c r="A2" s="2">
-        <v>6858</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="4">
-        <v>35802</v>
-      </c>
-      <c r="F2">
-        <v>36703219965</v>
-      </c>
-      <c r="J2">
-        <v>999</v>
-      </c>
-      <c r="Q2">
-        <v>777</v>
-      </c>
-      <c r="V2" t="s">
-        <v>22</v>
-      </c>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6858</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fekete Kálmán</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Üllői Lövész Klub</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1998-01-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>36703219965</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>VID_00001</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/database/versenyEredmenyek.xlsx
+++ b/database/versenyEredmenyek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,76 +544,82 @@
           <t>Verseny_ID</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Kategoria</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6858</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fekete Kálmán</t>
+          <t>Csefkó Pál</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Üllői Lövész Klub</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1998-01-07 00:00:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>36703219965</t>
-        </is>
-      </c>
+          <t>Csikóvári Para Sport Egyesület</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-13 20:47</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>777</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>VID_00001</t>
-        </is>
-      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Dr. Seffer István</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Szent Hubertus Szituációs Lövészklub</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-14 22:14</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -627,7 +633,53 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>VID_00001</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vivert János</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Szent Hubertus Szituációs Lövészklub</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>VID_00001</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/database/versenyEredmenyek.xlsx
+++ b/database/versenyEredmenyek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,10 +551,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
+      <c r="A2" t="n">
+        <v>35</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -566,7 +564,11 @@
           <t>Csikóvári Para Sport Egyesület</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -592,10 +594,8 @@
       <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="A3" t="n">
+        <v>25</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -641,10 +641,8 @@
       <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="A4" t="n">
+        <v>28</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -681,6 +679,51 @@
       </c>
       <c r="W4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Csefkó Pál</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Csikóvári Para Sport Egyesület</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-13 20:47</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>VID_00001</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/versenyEredmenyek.xlsx
+++ b/database/versenyEredmenyek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,11 +608,7 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -680,10 +676,8 @@
       <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="A5" t="n">
+        <v>35</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -724,6 +718,76 @@
       </c>
       <c r="W5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6858</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fekete Kálmán</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Üllői Lövész Klub</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>VID_00001</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>VID_00001</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/versenyEredmenyek.xlsx
+++ b/database/versenyEredmenyek.xlsx
@@ -551,32 +551,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Csefkó Pál</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Csikóvári Para Sport Egyesület</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-13 20:47</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -719,10 +701,8 @@
       <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6858</t>
-        </is>
+      <c r="A6" t="n">
+        <v>6858</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -760,9 +740,21 @@
       <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6865</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gál László</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B.T.K. Szituációs Lövész és Szabadidős Sportegyesület</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -781,11 +773,7 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>VID_00001</t>
-        </is>
-      </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
     </row>
   </sheetData>

--- a/database/versenyEredmenyek.xlsx
+++ b/database/versenyEredmenyek.xlsx
@@ -551,14 +551,32 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>980</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Turai Attila</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MTTSZ Béke Egyesület</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-15 19:12</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -740,10 +758,8 @@
       <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6865</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6865</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>

--- a/database/versenyEredmenyek.xlsx
+++ b/database/versenyEredmenyek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,6 +792,35 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/versenyEredmenyek.xlsx
+++ b/database/versenyEredmenyek.xlsx
@@ -793,10 +793,8 @@
       <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>982</t>
-        </is>
+      <c r="A8" t="n">
+        <v>982</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>

--- a/database/versenyEredmenyek.xlsx
+++ b/database/versenyEredmenyek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,29 +552,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Turai Attila</t>
+          <t>Dr. Seffer István</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MTTSZ Béke Egyesület</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>Szent Hubertus Szituációs Lövészklub</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-15 19:12</t>
+          <t>2025-09-14 22:14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -590,16 +586,20 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>VID_00001</t>
+        </is>
+      </c>
       <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Seffer István</t>
+          <t>Vivert János</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -611,11 +611,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-14 22:14</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -638,23 +634,27 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vivert János</t>
+          <t>Csefkó Pál</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Szent Hubertus Szituációs Lövészklub</t>
+          <t>Csikóvári Para Sport Egyesület</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-13 20:47</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -677,27 +677,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>35</v>
+        <v>6858</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Csefkó Pál</t>
+          <t>Fekete Kálmán</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Csikóvári Para Sport Egyesület</t>
+          <t>Üllői Lövész Klub</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-13 20:47</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -719,19 +715,9 @@
       <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>6858</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fekete Kálmán</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Üllői Lövész Klub</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -757,68 +743,6 @@
       </c>
       <c r="W6" t="inlineStr"/>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6865</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gál László</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>B.T.K. Szituációs Lövész és Szabadidős Sportegyesület</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>982</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/versenyEredmenyek.xlsx
+++ b/database/versenyEredmenyek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,9 +715,19 @@
       <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="A6" t="n">
+        <v>6578</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Krokker Mihály</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pandúr Lövész-Klub Sportegyesület</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -743,6 +753,39 @@
       </c>
       <c r="W6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>8653</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>VID_00001</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/versenyEredmenyek.xlsx
+++ b/database/versenyEredmenyek.xlsx
@@ -756,11 +756,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8653</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+          <t>4210</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Zsákai Tamás</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Veszprémi Sportlövész Egyesület</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -781,7 +789,7 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
         <is>
-          <t>VID_00001</t>
+          <t>VID_00003</t>
         </is>
       </c>
       <c r="W7" t="inlineStr"/>

--- a/database/versenyEredmenyek.xlsx
+++ b/database/versenyEredmenyek.xlsx
@@ -754,10 +754,8 @@
       <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4210</t>
-        </is>
+      <c r="A7" t="n">
+        <v>4210</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>

--- a/database/versenyEredmenyek.xlsx
+++ b/database/versenyEredmenyek.xlsx
@@ -574,12 +574,28 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -613,12 +629,24 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -656,9 +684,17 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -697,7 +733,11 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -736,7 +776,11 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
